--- a/evaluate_model/result_2022-01-25.xlsx
+++ b/evaluate_model/result_2022-01-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Thesis\evaluate_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B418D917-AF0C-45AC-BDFF-9FC276B70339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D80AA4-363D-4BD1-A70B-38E86D0D6123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,6 +672,9 @@
       <c r="C17">
         <v>720</v>
       </c>
+      <c r="D17">
+        <v>240</v>
+      </c>
       <c r="E17">
         <v>120</v>
       </c>
@@ -686,6 +689,9 @@
       <c r="C18">
         <v>480</v>
       </c>
+      <c r="D18">
+        <v>240</v>
+      </c>
       <c r="E18">
         <v>120</v>
       </c>
@@ -711,6 +717,12 @@
       <c r="B20">
         <v>120</v>
       </c>
+      <c r="C20">
+        <v>240</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -719,6 +731,12 @@
       <c r="B21">
         <v>120</v>
       </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -727,6 +745,12 @@
       <c r="B22">
         <v>120</v>
       </c>
+      <c r="C22">
+        <v>240</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -735,6 +759,9 @@
       <c r="B23">
         <v>120</v>
       </c>
+      <c r="C23">
+        <v>240</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -772,20 +799,32 @@
       <c r="A28" s="1">
         <v>44585</v>
       </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44585</v>
       </c>
+      <c r="B29">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44585</v>
       </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44585</v>
+      </c>
+      <c r="B31">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,10 +980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A30D78-B3BA-4022-A9E4-75FBDBDF1A4A}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227:K228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +1013,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B2">
         <v>-3</v>
@@ -991,7 +1030,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B3">
         <v>-3</v>
@@ -1008,7 +1047,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B4">
         <v>-3</v>
@@ -1025,7 +1064,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1042,7 +1081,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1059,7 +1098,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1076,7 +1115,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1093,7 +1132,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1110,7 +1149,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1127,7 +1166,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1144,7 +1183,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1161,7 +1200,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1178,7 +1217,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1195,7 +1234,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1212,7 +1251,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1229,7 +1268,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1246,7 +1285,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1263,7 +1302,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1280,7 +1319,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1297,7 +1336,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1314,7 +1353,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1331,7 +1370,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B23">
         <v>-1</v>
@@ -1348,7 +1387,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B24">
         <v>-1</v>
@@ -1365,7 +1404,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -1382,7 +1421,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -1399,7 +1438,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B27">
         <v>-1</v>
@@ -1416,7 +1455,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B28">
         <v>-1</v>
@@ -1433,7 +1472,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B29">
         <v>-1</v>
@@ -1450,7 +1489,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B30">
         <v>-1</v>
@@ -1467,7 +1506,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B31">
         <v>-1</v>
@@ -1484,7 +1523,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B32">
         <v>-1</v>
@@ -1501,7 +1540,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B33">
         <v>-1</v>
@@ -1518,7 +1557,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B34">
         <v>-1</v>
@@ -1535,7 +1574,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B35">
         <v>-1</v>
@@ -1552,7 +1591,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B36">
         <v>-1</v>
@@ -1569,7 +1608,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1586,7 +1625,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1603,7 +1642,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1620,7 +1659,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1637,7 +1676,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1654,7 +1693,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1671,7 +1710,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1688,7 +1727,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1705,7 +1744,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1722,7 +1761,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1739,7 +1778,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1756,7 +1795,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1773,7 +1812,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1790,7 +1829,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1807,7 +1846,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B51">
         <v>-2</v>
@@ -1824,7 +1863,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B52">
         <v>-2</v>
@@ -1841,7 +1880,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B53">
         <v>-2</v>
@@ -1858,7 +1897,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B54">
         <v>-2</v>
@@ -1875,7 +1914,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B55">
         <v>-2</v>
@@ -1892,7 +1931,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B56">
         <v>-2</v>
@@ -1909,7 +1948,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B57">
         <v>-3</v>
@@ -1926,7 +1965,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B58">
         <v>-3</v>
@@ -1943,7 +1982,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B59">
         <v>-3</v>
@@ -1960,7 +1999,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B60">
         <v>-3</v>
@@ -1977,7 +2016,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B61">
         <v>-3</v>
@@ -1994,7 +2033,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B62">
         <v>-3</v>
@@ -2011,7 +2050,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B63">
         <v>-3</v>
@@ -2028,7 +2067,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B64">
         <v>-3</v>
@@ -2045,7 +2084,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B65">
         <v>-3</v>
@@ -2062,7 +2101,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B66">
         <v>-3</v>
@@ -2079,7 +2118,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B67">
         <v>-3</v>
@@ -2096,7 +2135,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B68">
         <v>-3</v>
@@ -2113,7 +2152,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B69">
         <v>-3</v>
@@ -2130,7 +2169,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B70">
         <v>-3</v>
@@ -2147,7 +2186,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B71">
         <v>-3</v>
@@ -2164,7 +2203,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B72">
         <v>-3</v>
@@ -2181,7 +2220,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B73">
         <v>-3</v>
@@ -2198,7 +2237,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B74">
         <v>-3</v>
@@ -2215,7 +2254,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B75">
         <v>-3</v>
@@ -2232,7 +2271,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B76">
         <v>-3</v>
@@ -2249,7 +2288,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B77">
         <v>-3</v>
@@ -2266,7 +2305,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B78">
         <v>-3</v>
@@ -2283,7 +2322,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B79">
         <v>-3</v>
@@ -2300,7 +2339,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B80">
         <v>-3</v>
@@ -2317,7 +2356,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B81">
         <v>-3</v>
@@ -2334,7 +2373,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B82">
         <v>-3</v>
@@ -2351,7 +2390,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B83">
         <v>-3</v>
@@ -2368,7 +2407,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B84">
         <v>-3</v>
@@ -2385,7 +2424,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B85">
         <v>-3</v>
@@ -2402,7 +2441,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B86">
         <v>-3</v>
@@ -2419,7 +2458,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B87">
         <v>-3</v>
@@ -2436,7 +2475,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B88">
         <v>-1</v>
@@ -2453,7 +2492,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B89">
         <v>-1</v>
@@ -2470,7 +2509,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B90">
         <v>-1</v>
@@ -2487,7 +2526,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2504,7 +2543,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2521,7 +2560,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2538,7 +2577,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2555,7 +2594,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2572,7 +2611,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2589,7 +2628,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2606,7 +2645,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2623,7 +2662,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2640,7 +2679,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2657,7 +2696,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2674,7 +2713,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2691,7 +2730,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2708,7 +2747,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B104">
         <v>-1</v>
@@ -2725,7 +2764,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B105">
         <v>-1</v>
@@ -2742,7 +2781,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B106">
         <v>-1</v>
@@ -2759,7 +2798,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B107">
         <v>-1</v>
@@ -2776,7 +2815,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B108">
         <v>-1</v>
@@ -2793,7 +2832,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B109">
         <v>-1</v>
@@ -2810,7 +2849,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B110">
         <v>-1</v>
@@ -2827,7 +2866,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B111">
         <v>-1</v>
@@ -2844,7 +2883,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B112">
         <v>-1</v>
@@ -2861,7 +2900,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B113">
         <v>-1</v>
@@ -2878,7 +2917,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B114">
         <v>-1</v>
@@ -2895,7 +2934,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B115">
         <v>-2</v>
@@ -2912,7 +2951,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B116">
         <v>-2</v>
@@ -2929,7 +2968,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B117">
         <v>-2</v>
@@ -2946,7 +2985,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B118">
         <v>-2</v>
@@ -2963,7 +3002,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B119">
         <v>-1</v>
@@ -2980,7 +3019,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B120">
         <v>-1</v>
@@ -2997,7 +3036,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B121">
         <v>-1</v>
@@ -3014,7 +3053,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B122">
         <v>-1</v>
@@ -3031,7 +3070,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B123">
         <v>-1</v>
@@ -3048,7 +3087,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B124">
         <v>-1</v>
@@ -3065,7 +3104,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3082,7 +3121,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3099,7 +3138,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3116,7 +3155,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3133,7 +3172,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B129">
         <v>-1</v>
@@ -3150,7 +3189,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B130">
         <v>-1</v>
@@ -3167,7 +3206,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B131">
         <v>-1</v>
@@ -3184,7 +3223,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B132">
         <v>-1</v>
@@ -3201,7 +3240,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B133">
         <v>-1</v>
@@ -3218,7 +3257,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B134">
         <v>-1</v>
@@ -3235,7 +3274,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3252,7 +3291,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3269,7 +3308,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B137">
         <v>-1</v>
@@ -3286,7 +3325,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B138">
         <v>-1</v>
@@ -3303,7 +3342,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3320,7 +3359,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3337,7 +3376,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3354,7 +3393,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3371,7 +3410,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B143">
         <v>-1</v>
@@ -3388,7 +3427,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B144">
         <v>-1</v>
@@ -3405,7 +3444,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B145">
         <v>-1</v>
@@ -3422,7 +3461,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B146">
         <v>-1</v>
@@ -3439,7 +3478,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3456,7 +3495,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3473,7 +3512,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3490,7 +3529,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B150">
         <v>-1</v>
@@ -3507,7 +3546,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B151">
         <v>-1</v>
@@ -3524,7 +3563,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3541,7 +3580,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3558,7 +3597,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3575,7 +3614,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3592,7 +3631,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3609,7 +3648,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3626,7 +3665,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3643,7 +3682,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3660,7 +3699,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3677,7 +3716,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B161">
         <v>-1</v>
@@ -3694,7 +3733,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B162">
         <v>-1</v>
@@ -3711,7 +3750,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B163">
         <v>-1</v>
@@ -3728,7 +3767,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B164">
         <v>-1</v>
@@ -3745,7 +3784,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3762,7 +3801,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3779,7 +3818,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3796,7 +3835,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3813,7 +3852,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3830,7 +3869,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3847,7 +3886,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3864,7 +3903,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3881,7 +3920,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3898,7 +3937,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3915,7 +3954,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3932,7 +3971,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3949,7 +3988,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3966,7 +4005,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B178">
         <v>-3</v>
@@ -3983,7 +4022,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B179">
         <v>-3</v>
@@ -4000,7 +4039,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B180">
         <v>-3</v>
@@ -4017,7 +4056,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B181">
         <v>-3</v>
@@ -4034,7 +4073,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B182">
         <v>-3</v>
@@ -4051,7 +4090,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B183">
         <v>-2</v>
@@ -4068,7 +4107,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B184">
         <v>-2</v>
@@ -4085,7 +4124,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B185">
         <v>-2</v>
@@ -4102,7 +4141,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B186">
         <v>-2</v>
@@ -4119,7 +4158,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B187">
         <v>-2</v>
@@ -4136,7 +4175,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B188">
         <v>-2</v>
@@ -4153,7 +4192,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B189">
         <v>-2</v>
@@ -4170,7 +4209,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B190">
         <v>-2</v>
@@ -4187,7 +4226,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B191">
         <v>-2</v>
@@ -4204,7 +4243,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B192">
         <v>-2</v>
@@ -4221,7 +4260,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B193">
         <v>-1</v>
@@ -4238,7 +4277,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B194">
         <v>-2</v>
@@ -4255,7 +4294,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B195">
         <v>-2</v>
@@ -4272,7 +4311,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B196">
         <v>-2</v>
@@ -4289,7 +4328,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B197">
         <v>-2</v>
@@ -4306,7 +4345,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B198">
         <v>-2</v>
@@ -4323,7 +4362,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B199">
         <v>-2</v>
@@ -4340,7 +4379,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B200">
         <v>-2</v>
@@ -4357,7 +4396,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B201">
         <v>-2</v>
@@ -4374,7 +4413,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B202">
         <v>-2</v>
@@ -4391,7 +4430,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B203">
         <v>-1</v>
@@ -4408,7 +4447,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B204">
         <v>-1</v>
@@ -4425,7 +4464,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B205">
         <v>-1</v>
@@ -4442,7 +4481,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B206">
         <v>-1</v>
@@ -4459,7 +4498,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -4476,7 +4515,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -4493,7 +4532,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -4510,7 +4549,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -4527,7 +4566,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B211">
         <v>-1</v>
@@ -4544,7 +4583,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B212">
         <v>-1</v>
@@ -4561,7 +4600,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B213">
         <v>-1</v>
@@ -4578,7 +4617,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B214">
         <v>-1</v>
@@ -4595,7 +4634,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B215">
         <v>-1</v>
@@ -4612,7 +4651,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B216">
         <v>-1</v>
@@ -4629,7 +4668,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B217">
         <v>-1</v>
@@ -4646,7 +4685,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B218">
         <v>-1</v>
@@ -4663,7 +4702,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -4680,7 +4719,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -4697,7 +4736,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -4714,7 +4753,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -4731,7 +4770,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -4747,83 +4786,532 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>44586</v>
+      </c>
       <c r="B224">
-        <f>SUM(B2:B223)</f>
-        <v>-240</v>
+        <v>-3</v>
       </c>
       <c r="C224">
-        <f t="shared" ref="C224:E224" si="0">SUM(C2:C223)</f>
-        <v>-181</v>
+        <v>0</v>
       </c>
       <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B225">
+        <v>-3</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B226">
+        <v>-3</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B227">
+        <v>-3</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B228">
+        <v>-3</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B229">
+        <v>-3</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B230">
+        <v>-3</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>-1</v>
+      </c>
+      <c r="E230">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B231">
+        <v>-3</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>-1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B232">
+        <v>-3</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>-1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B233">
+        <v>-3</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>-1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B234">
+        <v>-3</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>-1</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B235">
+        <v>-3</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>-1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B236">
+        <v>-3</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>-1</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B237">
+        <v>-3</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>-1</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B238">
+        <v>-3</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>-1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B239">
+        <v>-3</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>-1</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B240">
+        <v>-3</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>-1</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B241">
+        <v>-3</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>-1</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B242">
+        <v>-3</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>-2</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B243">
+        <v>-3</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>-2</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B244">
+        <v>-3</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>-2</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B245">
+        <v>-3</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>-2</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B246">
+        <v>-3</v>
+      </c>
+      <c r="C246">
+        <v>-1</v>
+      </c>
+      <c r="D246">
+        <v>-2</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B247">
+        <v>-3</v>
+      </c>
+      <c r="C247">
+        <v>-1</v>
+      </c>
+      <c r="D247">
+        <v>-2</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B248">
+        <v>-3</v>
+      </c>
+      <c r="C248">
+        <v>-1</v>
+      </c>
+      <c r="D248">
+        <v>-2</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B249">
+        <v>-3</v>
+      </c>
+      <c r="C249">
+        <v>-1</v>
+      </c>
+      <c r="D249">
+        <v>-3</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B250">
+        <v>-3</v>
+      </c>
+      <c r="C250">
+        <v>-1</v>
+      </c>
+      <c r="D250">
+        <v>-3</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B251">
+        <v>-3</v>
+      </c>
+      <c r="C251">
+        <v>-1</v>
+      </c>
+      <c r="D251">
+        <v>-3</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B252">
+        <v>-3</v>
+      </c>
+      <c r="C252">
+        <v>-1</v>
+      </c>
+      <c r="D252">
+        <v>-2</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B253">
+        <v>-3</v>
+      </c>
+      <c r="C253">
+        <v>-1</v>
+      </c>
+      <c r="D253">
+        <v>-1</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <f>SUM(B2:B253)</f>
+        <v>-330</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ref="C254:E254" si="0">SUM(C2:C253)</f>
+        <v>-189</v>
+      </c>
+      <c r="D254">
         <f t="shared" si="0"/>
-        <v>-186</v>
-      </c>
-      <c r="E224">
+        <v>-224</v>
+      </c>
+      <c r="E254">
         <f t="shared" si="0"/>
-        <v>-231</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
+        <v>-238</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
